--- a/src/main/resources/templates/BraidTemplate.xlsx
+++ b/src/main/resources/templates/BraidTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609171A7-A44D-4B87-B6A4-6002FF9CEC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08858381-3D18-439D-A6C5-D61370BBC896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +213,15 @@
       <sz val="18"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -549,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,15 +599,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -617,30 +617,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -656,7 +644,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -672,14 +680,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -687,28 +695,37 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,25 +734,29 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,16 +1110,16 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.6" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="69.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="72.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="54.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="5" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" style="5" customWidth="1"/>
     <col min="5" max="6" width="2.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.6640625" style="5" customWidth="1"/>
     <col min="9" max="10" width="2.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -1245,16 +1266,16 @@
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1263,16 +1284,16 @@
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1281,18 +1302,18 @@
       <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1301,16 +1322,16 @@
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1319,20 +1340,20 @@
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1363,15 +1384,15 @@
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1380,49 +1401,49 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:14" s="7" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
@@ -1454,13 +1475,13 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="58"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1469,9 +1490,9 @@
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1480,9 +1501,9 @@
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1491,9 +1512,9 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1526,31 +1547,31 @@
       <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="L26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="68"/>
     </row>
     <row r="28" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="69"/>
       <c r="N28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A30" s="9" t="s">
@@ -1562,7 +1583,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="48"/>
-      <c r="C31" s="39"/>
+      <c r="C31" s="68"/>
       <c r="K31" s="5" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1627,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="31" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"-,Bold"&amp;16FO-PR-FR-05
 Prepared By:Eng.Mohamed Khaled Ahmed &amp;C&amp;"-,Bold"&amp;16Rev.(0)
